--- a/study1/data/study_1_long.xlsx
+++ b/study1/data/study_1_long.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halsayxi\Desktop\thuirlab\组会\20250910\final_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE36EE-3386-496E-90E8-DA85A448665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137DECA4-933A-4CD2-8212-A9D73BA2D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="150" windowWidth="19780" windowHeight="12490" xr2:uid="{BC1E6463-448E-42D2-BF8F-4461A621C052}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BC1E6463-448E-42D2-BF8F-4461A621C052}"/>
   </bookViews>
   <sheets>
     <sheet name="study_1_long" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">study_1_long!$A$1:$U$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="89">
   <si>
     <t>study_id</t>
   </si>
@@ -130,22 +133,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>p_value</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.s.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">*** </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>***</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>llm_ATE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -166,14 +153,6 @@
   </si>
   <si>
     <t>Vivek_6</t>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>**</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -415,6 +394,18 @@
   </si>
   <si>
     <t>baseline vs. boost (cumulative hot water, cubic meters)</t>
+  </si>
+  <si>
+    <t>significance_binary</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 1e-16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_size_replication</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1020,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,6 +1020,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1385,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBB8B64-E780-41A9-AEA9-101D9EDD0C1F}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1398,11 +1398,13 @@
     <col min="6" max="6" width="47" style="1" customWidth="1"/>
     <col min="7" max="7" width="65.6640625" style="1" customWidth="1"/>
     <col min="8" max="9" width="8.6640625" style="1"/>
-    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="12.4140625" style="1" customWidth="1"/>
+    <col min="11" max="17" width="8.6640625" style="1"/>
+    <col min="18" max="18" width="3.83203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1443,28 +1445,31 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,19 +1486,19 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K2" s="1">
         <v>83037</v>
@@ -1504,29 +1509,32 @@
       <c r="M2" s="1">
         <v>33747</v>
       </c>
-      <c r="N2" s="1">
-        <v>0</v>
+      <c r="N2" s="4">
+        <v>750</v>
       </c>
       <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
         <v>-0.20300000000000001</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>0.71619999999999995</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>0.77710000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="252" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="252" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1543,19 +1551,19 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K3" s="1">
         <v>83037</v>
@@ -1566,29 +1574,30 @@
       <c r="M3" s="1">
         <v>33747</v>
       </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
+      <c r="N3" s="5"/>
       <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>-0.64200000000000002</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
         <v>-0.81299999999999994</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>0.2631</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="252" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="252" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,19 +1614,19 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K4" s="1">
         <v>83037</v>
@@ -1628,29 +1637,30 @@
       <c r="M4" s="1">
         <v>33747</v>
       </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
+      <c r="N4" s="5"/>
       <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>-0.84</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>0.104</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
         <v>-0.95250000000000001</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>0.26200000000000001</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="350" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="350" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1667,19 +1677,19 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K5" s="1">
         <v>83037</v>
@@ -1690,29 +1700,30 @@
       <c r="M5" s="1">
         <v>33747</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
+      <c r="N5" s="5"/>
       <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>-0.627</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>0.123</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
         <v>-0.66349999999999998</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>0.28189999999999998</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1729,19 +1740,19 @@
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K6" s="1">
         <v>33747</v>
@@ -1752,29 +1763,30 @@
       <c r="M6" s="1">
         <v>21630</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
         <v>0.02</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>0.81320000000000003</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>0.98040000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="308" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="308" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1791,19 +1803,19 @@
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K7" s="1">
         <v>33747</v>
@@ -1814,29 +1826,30 @@
       <c r="M7" s="1">
         <v>21630</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
+      <c r="N7" s="5"/>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>2E-3</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
         <v>-1.23E-2</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>0.2611</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="308" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="308" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1853,19 +1866,19 @@
         <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K8" s="1">
         <v>33747</v>
@@ -1876,29 +1889,30 @@
       <c r="M8" s="1">
         <v>21630</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <v>-3.9E-2</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>0.08</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
         <v>0.08</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>0.26419999999999999</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>0.7621</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="252" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="252" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1915,19 +1929,19 @@
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K9" s="1">
         <v>33747</v>
@@ -1938,34 +1952,35 @@
       <c r="M9" s="1">
         <v>21630</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
+      <c r="N9" s="5"/>
       <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>-0.38</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
         <v>-0.67859999999999998</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>0.3211</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>3.4799999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="98" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="98" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -1977,19 +1992,19 @@
         <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="K10" s="1">
         <v>43</v>
@@ -2000,34 +2015,37 @@
       <c r="M10" s="1">
         <v>22</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
+      <c r="N10" s="4">
+        <v>65</v>
       </c>
       <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
         <v>0.40489999999999998</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>0.22439999999999999</v>
       </c>
-      <c r="Q10" s="1">
-        <v>7.8799999999999995E-2</v>
-      </c>
       <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
         <v>3.246</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>0.92789999999999995</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="140" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="140" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -2039,19 +2057,19 @@
         <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K11" s="1">
         <v>44</v>
@@ -2062,34 +2080,35 @@
       <c r="M11" s="1">
         <v>22</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
+      <c r="N11" s="5"/>
       <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <v>-0.65069999999999995</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>0.22289999999999999</v>
       </c>
-      <c r="Q11" s="1">
-        <v>5.7999999999999996E-3</v>
-      </c>
       <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
         <v>-3.2444000000000002</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>0.87339999999999995</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="84" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -2101,19 +2120,19 @@
         <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K12" s="1">
         <v>43</v>
@@ -2124,34 +2143,35 @@
       <c r="M12" s="1">
         <v>22</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
+      <c r="N12" s="5"/>
       <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
         <v>-0.24579999999999999</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>0.19539999999999999</v>
       </c>
-      <c r="Q12" s="1">
-        <v>0.21560000000000001</v>
-      </c>
       <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>0.56689999999999996</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>0.99780000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="98" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="98" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -2163,19 +2183,19 @@
         <v>16</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="K13" s="1">
         <v>43</v>
@@ -2186,34 +2206,35 @@
       <c r="M13" s="1">
         <v>22</v>
       </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
+      <c r="N13" s="5"/>
       <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
         <v>1E-3</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Q13" s="1">
-        <v>0.92930000000000001</v>
-      </c>
       <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="140" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="140" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -2225,19 +2246,19 @@
         <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K14" s="1">
         <v>44</v>
@@ -2248,34 +2269,35 @@
       <c r="M14" s="1">
         <v>22</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
+      <c r="N14" s="5"/>
       <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="Q14" s="1">
-        <v>0.91549999999999998</v>
-      </c>
       <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>0.56059999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="84" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="84" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
@@ -2287,19 +2309,19 @@
         <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K15" s="1">
         <v>43</v>
@@ -2310,29 +2332,30 @@
       <c r="M15" s="1">
         <v>22</v>
       </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
+      <c r="N15" s="5"/>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
         <v>1.11E-2</v>
       </c>
-      <c r="Q15" s="1">
-        <v>1</v>
-      </c>
       <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
         <v>0.1069</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>38</v>
+      <c r="U15" s="3">
+        <v>1.95E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="70" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,19 +2372,19 @@
         <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1">
         <v>60</v>
@@ -2372,29 +2395,32 @@
       <c r="M16" s="1">
         <v>30</v>
       </c>
-      <c r="N16" s="1">
-        <v>0</v>
+      <c r="N16" s="4">
+        <v>120</v>
       </c>
       <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
         <v>-3.3519999999999999</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>11.11</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
         <v>10.1317</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>2.9836999999999998</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="42" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2411,19 +2437,19 @@
         <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K17" s="1">
         <v>60</v>
@@ -2434,29 +2460,30 @@
       <c r="M17" s="1">
         <v>30</v>
       </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
+      <c r="N17" s="5"/>
       <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
         <v>-21.28</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>13.07</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
         <v>8.0075000000000003</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>1.9490000000000001</v>
       </c>
-      <c r="T17" s="1">
-        <v>4.5000000000000003E-5</v>
+      <c r="U17" s="3">
+        <v>4.46E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="112" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="112" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,19 +2500,19 @@
         <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K18" s="1">
         <v>60</v>
@@ -2496,31 +2523,32 @@
       <c r="M18" s="1">
         <v>30</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
+      <c r="N18" s="5"/>
       <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
         <v>-12.79</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>10.38</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
         <v>-32.633299999999998</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <v>1.1978</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="42" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
@@ -2535,19 +2563,19 @@
         <v>23</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K19" s="1">
         <v>60</v>
@@ -2558,31 +2586,32 @@
       <c r="M19" s="1">
         <v>30</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
+      <c r="N19" s="5"/>
       <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
         <v>-25.97</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>13.81</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
         <v>-26.933299999999999</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>1.3238000000000001</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>38</v>
+      <c r="U19" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="126" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="126" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -2597,19 +2626,19 @@
         <v>23</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K20" s="1">
         <v>60</v>
@@ -2620,31 +2649,32 @@
       <c r="M20" s="1">
         <v>30</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
+      <c r="N20" s="5"/>
       <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
         <v>-20.09</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>11.57</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
         <v>-21.3933</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>3.4131999999999998</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>38</v>
+      <c r="U20" s="3">
+        <v>2.4899999999999999E-9</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
@@ -2659,19 +2689,19 @@
         <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K21" s="1">
         <v>60</v>
@@ -2682,29 +2712,36 @@
       <c r="M21" s="1">
         <v>30</v>
       </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
+      <c r="N21" s="5"/>
       <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
         <v>-30.28</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>13.33</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
         <v>-28.9861</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <v>1.6275999999999999</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>38</v>
+      <c r="U21" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U21" xr:uid="{DDBB8B64-E780-41A9-AEA9-101D9EDD0C1F}"/>
+  <mergeCells count="3">
+    <mergeCell ref="N2:N9"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="N16:N21"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
